--- a/CSS2018/data/admin/ClassInfo-Dev.xlsx
+++ b/CSS2018/data/admin/ClassInfo-Dev.xlsx
@@ -5,11 +5,11 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\_gitHub\LinkedDataWorkshop\CSS2018\data\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\_gitHub\LinkedDataWorkshop\CSS2018\data\admin\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="19200" windowHeight="6950"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="19200" windowHeight="6945"/>
   </bookViews>
   <sheets>
     <sheet name="Servers" sheetId="2" r:id="rId1"/>
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="15" uniqueCount="15">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="16" uniqueCount="16">
   <si>
     <t>Server</t>
   </si>
@@ -69,6 +69,9 @@
   </si>
   <si>
     <t>TW DEMO</t>
+  </si>
+  <si>
+    <t>MASTER</t>
   </si>
 </sst>
 </file>
@@ -91,13 +94,13 @@
     </font>
     <font>
       <sz val="11"/>
-      <color theme="5" tint="-0.249977111117893"/>
+      <color rgb="FFFF0000"/>
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="3">
+  <fills count="4">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -107,6 +110,12 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor rgb="FFFFFF00"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="0"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -123,14 +132,16 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="5">
+  <cellXfs count="7">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -451,15 +462,15 @@
       <selection activeCell="B14" sqref="B14"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="2" max="2" width="13.26953125" bestFit="1" customWidth="1"/>
-    <col min="3" max="4" width="13.26953125" customWidth="1"/>
-    <col min="8" max="8" width="37.81640625" style="1" customWidth="1"/>
-    <col min="9" max="9" width="23.7265625" customWidth="1"/>
+    <col min="2" max="2" width="13.28515625" bestFit="1" customWidth="1"/>
+    <col min="3" max="4" width="13.28515625" customWidth="1"/>
+    <col min="8" max="8" width="37.85546875" style="1" customWidth="1"/>
+    <col min="9" max="9" width="23.7109375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -479,11 +490,11 @@
         <v>10</v>
       </c>
     </row>
-    <row r="2" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="2" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A2">
         <v>1</v>
       </c>
-      <c r="B2" t="s">
+      <c r="B2" s="4" t="s">
         <v>3</v>
       </c>
       <c r="C2">
@@ -492,39 +503,35 @@
       <c r="D2">
         <v>4</v>
       </c>
-      <c r="E2" t="str">
-        <f>_xlfn.CONCAT("Study",A2)</f>
-        <v>Study1</v>
-      </c>
-    </row>
-    <row r="3" spans="1:9" x14ac:dyDescent="0.35">
-      <c r="A3" s="4">
+      <c r="F2" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="3" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A3" s="3">
         <f>A2+1</f>
         <v>2</v>
       </c>
-      <c r="B3" s="4" t="s">
+      <c r="B3" s="5" t="s">
         <v>4</v>
       </c>
-      <c r="C3" s="4">
+      <c r="C3" s="3">
         <v>2</v>
       </c>
-      <c r="D3" s="4">
+      <c r="D3" s="3">
         <v>4</v>
       </c>
-      <c r="E3" s="4" t="str">
-        <f t="shared" ref="E3:E8" si="0">_xlfn.CONCAT("Study",A3)</f>
-        <v>Study2</v>
-      </c>
-      <c r="F3" s="4" t="s">
+      <c r="E3" s="3"/>
+      <c r="F3" s="3" t="s">
         <v>14</v>
       </c>
     </row>
-    <row r="4" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="4" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A4">
-        <f t="shared" ref="A4:A8" si="1">A3+1</f>
+        <f t="shared" ref="A4:A8" si="0">A3+1</f>
         <v>3</v>
       </c>
-      <c r="B4" s="3" t="s">
+      <c r="B4" s="6" t="s">
         <v>5</v>
       </c>
       <c r="C4">
@@ -533,20 +540,16 @@
       <c r="D4">
         <v>4</v>
       </c>
-      <c r="E4" t="str">
-        <f t="shared" si="0"/>
-        <v>Study3</v>
-      </c>
       <c r="F4" t="s">
         <v>13</v>
       </c>
     </row>
-    <row r="5" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="5" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A5">
-        <f t="shared" si="1"/>
+        <f t="shared" si="0"/>
         <v>4</v>
       </c>
-      <c r="B5" t="s">
+      <c r="B5" s="5" t="s">
         <v>6</v>
       </c>
       <c r="C5">
@@ -555,17 +558,13 @@
       <c r="D5">
         <v>1</v>
       </c>
-      <c r="E5" t="str">
+    </row>
+    <row r="6" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A6">
         <f t="shared" si="0"/>
-        <v>Study4</v>
-      </c>
-    </row>
-    <row r="6" spans="1:9" x14ac:dyDescent="0.35">
-      <c r="A6">
-        <f t="shared" si="1"/>
         <v>5</v>
       </c>
-      <c r="B6" t="s">
+      <c r="B6" s="5" t="s">
         <v>9</v>
       </c>
       <c r="C6">
@@ -574,17 +573,13 @@
       <c r="D6">
         <v>1</v>
       </c>
-      <c r="E6" t="str">
+    </row>
+    <row r="7" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A7" s="2">
         <f t="shared" si="0"/>
-        <v>Study5</v>
-      </c>
-    </row>
-    <row r="7" spans="1:9" x14ac:dyDescent="0.35">
-      <c r="A7" s="2">
-        <f t="shared" si="1"/>
         <v>6</v>
       </c>
-      <c r="B7" s="2" t="s">
+      <c r="B7" s="6" t="s">
         <v>7</v>
       </c>
       <c r="C7" s="2">
@@ -593,17 +588,13 @@
       <c r="D7" s="2">
         <v>1</v>
       </c>
-      <c r="E7" t="str">
+    </row>
+    <row r="8" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A8">
         <f t="shared" si="0"/>
-        <v>Study6</v>
-      </c>
-    </row>
-    <row r="8" spans="1:9" x14ac:dyDescent="0.35">
-      <c r="A8">
-        <f t="shared" si="1"/>
         <v>7</v>
       </c>
-      <c r="B8" t="s">
+      <c r="B8" s="5" t="s">
         <v>8</v>
       </c>
       <c r="C8">
@@ -611,10 +602,6 @@
       </c>
       <c r="D8">
         <v>1</v>
-      </c>
-      <c r="E8" t="str">
-        <f t="shared" si="0"/>
-        <v>Study7</v>
       </c>
     </row>
   </sheetData>

--- a/CSS2018/data/admin/ClassInfo-Dev.xlsx
+++ b/CSS2018/data/admin/ClassInfo-Dev.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="19200" windowHeight="6945"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="19200" windowHeight="6950"/>
   </bookViews>
   <sheets>
     <sheet name="Servers" sheetId="2" r:id="rId1"/>
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="16" uniqueCount="16">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="131" uniqueCount="91">
   <si>
     <t>Server</t>
   </si>
@@ -35,43 +35,272 @@
     <t>Comment</t>
   </si>
   <si>
-    <t>52.14.114.74</t>
-  </si>
-  <si>
-    <t>18.218.251.17</t>
-  </si>
-  <si>
-    <t>18.222.6.115</t>
-  </si>
-  <si>
-    <t>18.219.195.178</t>
-  </si>
-  <si>
-    <t>13.59.123.28</t>
-  </si>
-  <si>
-    <t>18.219.192.162</t>
-  </si>
-  <si>
-    <t>18.219.116.80</t>
-  </si>
-  <si>
-    <t>Ping</t>
-  </si>
-  <si>
-    <t>Core</t>
-  </si>
-  <si>
-    <t>RAM (G)</t>
-  </si>
-  <si>
-    <t>For use by JU: 27-29-Feg</t>
-  </si>
-  <si>
-    <t>TW DEMO</t>
-  </si>
-  <si>
-    <t>MASTER</t>
+    <t>Instructor</t>
+  </si>
+  <si>
+    <t>givenName</t>
+  </si>
+  <si>
+    <t>surName</t>
+  </si>
+  <si>
+    <t>Nancy</t>
+  </si>
+  <si>
+    <t>Thomas Gade</t>
+  </si>
+  <si>
+    <t>Albert</t>
+  </si>
+  <si>
+    <t>William</t>
+  </si>
+  <si>
+    <t>Praveen</t>
+  </si>
+  <si>
+    <t>Brian</t>
+  </si>
+  <si>
+    <t>Drashtti</t>
+  </si>
+  <si>
+    <t>Ippei</t>
+  </si>
+  <si>
+    <t>Michael</t>
+  </si>
+  <si>
+    <t>Grace</t>
+  </si>
+  <si>
+    <t>Ting-Yuan</t>
+  </si>
+  <si>
+    <t>Julie</t>
+  </si>
+  <si>
+    <t>Cynthia</t>
+  </si>
+  <si>
+    <t>Terry</t>
+  </si>
+  <si>
+    <t>Zhihai</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Sumeet </t>
+  </si>
+  <si>
+    <t>Bauer</t>
+  </si>
+  <si>
+    <t>Bjerregaard</t>
+  </si>
+  <si>
+    <t>Chau</t>
+  </si>
+  <si>
+    <t>Drewe</t>
+  </si>
+  <si>
+    <t>Garg</t>
+  </si>
+  <si>
+    <t>Harris</t>
+  </si>
+  <si>
+    <t>Vasant</t>
+  </si>
+  <si>
+    <t>Akiya</t>
+  </si>
+  <si>
+    <t>Carniello</t>
+  </si>
+  <si>
+    <t>Lin</t>
+  </si>
+  <si>
+    <t>Liu</t>
+  </si>
+  <si>
+    <t>Shah</t>
+  </si>
+  <si>
+    <t>Stroupe</t>
+  </si>
+  <si>
+    <t>Walsh</t>
+  </si>
+  <si>
+    <t>Zhang</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Uppal </t>
+  </si>
+  <si>
+    <t>Study19 created during the session. Z used for sorting</t>
+  </si>
+  <si>
+    <t>ZZ2</t>
+  </si>
+  <si>
+    <t>ZZ1</t>
+  </si>
+  <si>
+    <t>18.222.8.41</t>
+  </si>
+  <si>
+    <t>18.222.37.226</t>
+  </si>
+  <si>
+    <t>18.222.76.241</t>
+  </si>
+  <si>
+    <t>18.222.105.80</t>
+  </si>
+  <si>
+    <t>18.219.9.219</t>
+  </si>
+  <si>
+    <t>13.58.110.24</t>
+  </si>
+  <si>
+    <t>18.219.245.198</t>
+  </si>
+  <si>
+    <t>18.219.97.220</t>
+  </si>
+  <si>
+    <t>18.219.251.173</t>
+  </si>
+  <si>
+    <t>18.219.146.1</t>
+  </si>
+  <si>
+    <t>18.219.26.232</t>
+  </si>
+  <si>
+    <t>18.218.91.67</t>
+  </si>
+  <si>
+    <t>18.218.251.84</t>
+  </si>
+  <si>
+    <t>18.219.113.159</t>
+  </si>
+  <si>
+    <t>18.219.152.196</t>
+  </si>
+  <si>
+    <t>18.219.255.98</t>
+  </si>
+  <si>
+    <t>18.221.143.21</t>
+  </si>
+  <si>
+    <t>18.222.48.243</t>
+  </si>
+  <si>
+    <t>54.160.7.17</t>
+  </si>
+  <si>
+    <t>54.167.99.89</t>
+  </si>
+  <si>
+    <t>ZZ0</t>
+  </si>
+  <si>
+    <t>ZZ3</t>
+  </si>
+  <si>
+    <t>Pull From</t>
+  </si>
+  <si>
+    <t>PoolTo</t>
+  </si>
+  <si>
+    <t>Test DB
+Loaded</t>
+  </si>
+  <si>
+    <t>Study10+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">   + indicates study ontology also loaded</t>
+  </si>
+  <si>
+    <t>Study11+</t>
+  </si>
+  <si>
+    <t>Git Pull</t>
+  </si>
+  <si>
+    <t>Study12+</t>
+  </si>
+  <si>
+    <t>Study13+</t>
+  </si>
+  <si>
+    <t>Study14+</t>
+  </si>
+  <si>
+    <t>Study15+</t>
+  </si>
+  <si>
+    <t>Study16+</t>
+  </si>
+  <si>
+    <t>Study17+</t>
+  </si>
+  <si>
+    <t>Study18+</t>
+  </si>
+  <si>
+    <t>Study19+</t>
+  </si>
+  <si>
+    <t>Y</t>
+  </si>
+  <si>
+    <t>Study1+</t>
+  </si>
+  <si>
+    <t>Study2+</t>
+  </si>
+  <si>
+    <t>Study3+</t>
+  </si>
+  <si>
+    <t>Extend
+Open
+Window</t>
+  </si>
+  <si>
+    <t>Study4+</t>
+  </si>
+  <si>
+    <t>Study5+</t>
+  </si>
+  <si>
+    <t>Study6+</t>
+  </si>
+  <si>
+    <t>Study7+</t>
+  </si>
+  <si>
+    <t>Study8+</t>
+  </si>
+  <si>
+    <t>Study9+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">
+Study99 - in LDWStudy and Test DBs</t>
+  </si>
+  <si>
+    <t>STUDY99 mystery server. Z used for sorting. NOT USED in live session other than for mystery pool.</t>
   </si>
 </sst>
 </file>
@@ -100,12 +329,18 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="4">
+  <fills count="5">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="0"/>
+        <bgColor indexed="64"/>
+      </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
@@ -115,14 +350,51 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="0"/>
+        <fgColor theme="0" tint="-0.249977111117893"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
   </fills>
-  <borders count="1">
+  <borders count="4">
     <border>
       <left/>
+      <right/>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
       <right/>
       <top/>
       <bottom/>
@@ -132,16 +404,66 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="7">
+  <cellXfs count="27">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1"/>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="2" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -456,155 +778,628 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:I8"/>
+  <dimension ref="A1:M22"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B14" sqref="B14"/>
+      <selection activeCell="B21" sqref="B21"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="2" max="2" width="13.28515625" bestFit="1" customWidth="1"/>
-    <col min="3" max="4" width="13.28515625" customWidth="1"/>
-    <col min="8" max="8" width="37.85546875" style="1" customWidth="1"/>
-    <col min="9" max="9" width="23.7109375" customWidth="1"/>
+    <col min="2" max="2" width="13.26953125" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="13.26953125" customWidth="1"/>
+    <col min="4" max="4" width="13.26953125" style="4" customWidth="1"/>
+    <col min="5" max="5" width="6.6328125" style="19" customWidth="1"/>
+    <col min="6" max="6" width="13.26953125" style="24" customWidth="1"/>
+    <col min="7" max="7" width="8.54296875" style="19" customWidth="1"/>
+    <col min="8" max="9" width="13.26953125" style="4" customWidth="1"/>
+    <col min="10" max="10" width="46" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="37.81640625" style="1" customWidth="1"/>
+    <col min="14" max="14" width="23.7265625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A1" t="s">
+    <row r="1" spans="1:11" ht="43.5" x14ac:dyDescent="0.35">
+      <c r="A1" s="5" t="s">
         <v>0</v>
       </c>
-      <c r="B1" t="s">
+      <c r="B1" s="5" t="s">
         <v>1</v>
       </c>
-      <c r="C1" t="s">
-        <v>11</v>
-      </c>
-      <c r="D1" t="s">
-        <v>12</v>
-      </c>
-      <c r="E1" t="s">
+      <c r="C1" s="5" t="s">
+        <v>4</v>
+      </c>
+      <c r="D1" s="6" t="s">
+        <v>5</v>
+      </c>
+      <c r="E1" s="16" t="s">
+        <v>69</v>
+      </c>
+      <c r="F1" s="7" t="s">
+        <v>65</v>
+      </c>
+      <c r="G1" s="20" t="s">
+        <v>82</v>
+      </c>
+      <c r="H1" s="6" t="s">
+        <v>63</v>
+      </c>
+      <c r="I1" s="6" t="s">
+        <v>64</v>
+      </c>
+      <c r="J1" s="13" t="s">
         <v>2</v>
       </c>
-      <c r="I1" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="2" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A2">
+      <c r="K1" s="15"/>
+    </row>
+    <row r="2" spans="1:11" x14ac:dyDescent="0.35">
+      <c r="A2" s="11">
         <v>1</v>
       </c>
-      <c r="B2" s="4" t="s">
-        <v>3</v>
-      </c>
-      <c r="C2">
-        <v>2</v>
-      </c>
-      <c r="D2">
-        <v>4</v>
-      </c>
-      <c r="F2" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="3" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A3" s="3">
+      <c r="B2" s="9" t="s">
+        <v>48</v>
+      </c>
+      <c r="C2" s="5" t="s">
+        <v>13</v>
+      </c>
+      <c r="D2" s="8" t="s">
+        <v>29</v>
+      </c>
+      <c r="E2" s="17" t="s">
+        <v>78</v>
+      </c>
+      <c r="F2" s="21" t="s">
+        <v>79</v>
+      </c>
+      <c r="G2" s="17" t="s">
+        <v>78</v>
+      </c>
+      <c r="H2" s="8"/>
+      <c r="I2" s="8"/>
+      <c r="J2" s="13" t="s">
+        <v>67</v>
+      </c>
+      <c r="K2" s="15"/>
+    </row>
+    <row r="3" spans="1:11" x14ac:dyDescent="0.35">
+      <c r="A3" s="9">
         <f>A2+1</f>
         <v>2</v>
       </c>
-      <c r="B3" s="5" t="s">
+      <c r="B3" s="9" t="s">
+        <v>41</v>
+      </c>
+      <c r="C3" s="5" t="s">
+        <v>6</v>
+      </c>
+      <c r="D3" s="8" t="s">
+        <v>22</v>
+      </c>
+      <c r="E3" s="17" t="s">
+        <v>78</v>
+      </c>
+      <c r="F3" s="21" t="s">
+        <v>80</v>
+      </c>
+      <c r="G3" s="17" t="s">
+        <v>78</v>
+      </c>
+      <c r="H3" s="8"/>
+      <c r="I3" s="8"/>
+      <c r="J3" s="13"/>
+      <c r="K3" s="15"/>
+    </row>
+    <row r="4" spans="1:11" x14ac:dyDescent="0.35">
+      <c r="A4" s="9">
+        <f>A3+1</f>
+        <v>3</v>
+      </c>
+      <c r="B4" s="9" t="s">
+        <v>42</v>
+      </c>
+      <c r="C4" s="9" t="s">
+        <v>7</v>
+      </c>
+      <c r="D4" s="10" t="s">
+        <v>23</v>
+      </c>
+      <c r="E4" s="18" t="s">
+        <v>78</v>
+      </c>
+      <c r="F4" s="22" t="s">
+        <v>81</v>
+      </c>
+      <c r="G4" s="18" t="s">
+        <v>78</v>
+      </c>
+      <c r="H4" s="10"/>
+      <c r="I4" s="10"/>
+      <c r="J4" s="14"/>
+      <c r="K4" s="15"/>
+    </row>
+    <row r="5" spans="1:11" x14ac:dyDescent="0.35">
+      <c r="A5" s="11">
+        <f>A4+1</f>
         <v>4</v>
       </c>
-      <c r="C3" s="3">
-        <v>2</v>
-      </c>
-      <c r="D3" s="3">
-        <v>4</v>
-      </c>
-      <c r="E3" s="3"/>
-      <c r="F3" s="3" t="s">
+      <c r="B5" s="9" t="s">
+        <v>49</v>
+      </c>
+      <c r="C5" s="9" t="s">
         <v>14</v>
       </c>
-    </row>
-    <row r="4" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A4">
-        <f t="shared" ref="A4:A8" si="0">A3+1</f>
+      <c r="D5" s="10" t="s">
+        <v>30</v>
+      </c>
+      <c r="E5" s="18" t="s">
+        <v>78</v>
+      </c>
+      <c r="F5" s="22" t="s">
+        <v>83</v>
+      </c>
+      <c r="G5" s="18" t="s">
+        <v>78</v>
+      </c>
+      <c r="H5" s="10"/>
+      <c r="I5" s="10"/>
+      <c r="J5" s="13"/>
+      <c r="K5" s="15"/>
+    </row>
+    <row r="6" spans="1:11" x14ac:dyDescent="0.35">
+      <c r="A6" s="11">
+        <f>A5+1</f>
+        <v>5</v>
+      </c>
+      <c r="B6" s="9" t="s">
+        <v>43</v>
+      </c>
+      <c r="C6" s="5" t="s">
+        <v>8</v>
+      </c>
+      <c r="D6" s="8" t="s">
+        <v>24</v>
+      </c>
+      <c r="E6" s="17" t="s">
+        <v>78</v>
+      </c>
+      <c r="F6" s="22" t="s">
+        <v>84</v>
+      </c>
+      <c r="G6" s="17" t="s">
+        <v>78</v>
+      </c>
+      <c r="H6" s="8"/>
+      <c r="I6" s="8"/>
+      <c r="J6" s="13"/>
+      <c r="K6" s="15"/>
+    </row>
+    <row r="7" spans="1:11" x14ac:dyDescent="0.35">
+      <c r="A7" s="11">
+        <f>A6+1</f>
+        <v>6</v>
+      </c>
+      <c r="B7" s="9" t="s">
+        <v>44</v>
+      </c>
+      <c r="C7" s="9" t="s">
+        <v>9</v>
+      </c>
+      <c r="D7" s="8" t="s">
+        <v>25</v>
+      </c>
+      <c r="E7" s="17" t="s">
+        <v>78</v>
+      </c>
+      <c r="F7" s="22" t="s">
+        <v>85</v>
+      </c>
+      <c r="G7" s="17" t="s">
+        <v>78</v>
+      </c>
+      <c r="H7" s="8"/>
+      <c r="I7" s="8"/>
+      <c r="J7" s="13"/>
+      <c r="K7" s="15"/>
+    </row>
+    <row r="8" spans="1:11" x14ac:dyDescent="0.35">
+      <c r="A8" s="11">
+        <f>A7+1</f>
+        <v>7</v>
+      </c>
+      <c r="B8" s="9" t="s">
+        <v>45</v>
+      </c>
+      <c r="C8" s="9" t="s">
+        <v>10</v>
+      </c>
+      <c r="D8" s="8" t="s">
+        <v>26</v>
+      </c>
+      <c r="E8" s="17" t="s">
+        <v>78</v>
+      </c>
+      <c r="F8" s="22" t="s">
+        <v>86</v>
+      </c>
+      <c r="G8" s="17" t="s">
+        <v>78</v>
+      </c>
+      <c r="H8" s="8"/>
+      <c r="I8" s="8"/>
+      <c r="J8" s="13"/>
+      <c r="K8" s="15"/>
+    </row>
+    <row r="9" spans="1:11" x14ac:dyDescent="0.35">
+      <c r="A9" s="11">
+        <f>A8+1</f>
+        <v>8</v>
+      </c>
+      <c r="B9" s="12" t="s">
+        <v>46</v>
+      </c>
+      <c r="C9" s="5" t="s">
+        <v>11</v>
+      </c>
+      <c r="D9" s="8" t="s">
+        <v>27</v>
+      </c>
+      <c r="E9" s="17" t="s">
+        <v>78</v>
+      </c>
+      <c r="F9" s="22" t="s">
+        <v>87</v>
+      </c>
+      <c r="G9" s="17" t="s">
+        <v>78</v>
+      </c>
+      <c r="H9" s="8"/>
+      <c r="I9" s="8"/>
+      <c r="J9" s="13"/>
+      <c r="K9" s="15"/>
+    </row>
+    <row r="10" spans="1:11" x14ac:dyDescent="0.35">
+      <c r="A10" s="11">
+        <f>A9+1</f>
+        <v>9</v>
+      </c>
+      <c r="B10" s="9" t="s">
+        <v>50</v>
+      </c>
+      <c r="C10" s="5" t="s">
+        <v>15</v>
+      </c>
+      <c r="D10" s="6" t="s">
+        <v>31</v>
+      </c>
+      <c r="E10" s="16" t="s">
+        <v>78</v>
+      </c>
+      <c r="F10" s="22" t="s">
+        <v>88</v>
+      </c>
+      <c r="G10" s="16" t="s">
+        <v>78</v>
+      </c>
+      <c r="H10" s="6"/>
+      <c r="I10" s="6"/>
+      <c r="K10" s="15"/>
+    </row>
+    <row r="11" spans="1:11" x14ac:dyDescent="0.35">
+      <c r="A11" s="11">
+        <f>A10+1</f>
+        <v>10</v>
+      </c>
+      <c r="B11" s="9" t="s">
+        <v>51</v>
+      </c>
+      <c r="C11" s="5" t="s">
+        <v>16</v>
+      </c>
+      <c r="D11" s="8" t="s">
+        <v>32</v>
+      </c>
+      <c r="E11" s="17" t="s">
+        <v>78</v>
+      </c>
+      <c r="F11" s="22" t="s">
+        <v>66</v>
+      </c>
+      <c r="G11" s="17" t="s">
+        <v>78</v>
+      </c>
+      <c r="H11" s="8"/>
+      <c r="I11" s="8"/>
+      <c r="J11" s="13"/>
+      <c r="K11" s="15"/>
+    </row>
+    <row r="12" spans="1:11" x14ac:dyDescent="0.35">
+      <c r="A12" s="11">
+        <f>A11+1</f>
+        <v>11</v>
+      </c>
+      <c r="B12" s="9" t="s">
+        <v>52</v>
+      </c>
+      <c r="C12" s="5" t="s">
+        <v>17</v>
+      </c>
+      <c r="D12" s="8" t="s">
+        <v>33</v>
+      </c>
+      <c r="E12" s="17" t="s">
+        <v>78</v>
+      </c>
+      <c r="F12" s="22" t="s">
+        <v>68</v>
+      </c>
+      <c r="G12" s="17" t="s">
+        <v>78</v>
+      </c>
+      <c r="H12" s="8"/>
+      <c r="I12" s="8"/>
+      <c r="J12" s="13"/>
+      <c r="K12" s="15"/>
+    </row>
+    <row r="13" spans="1:11" x14ac:dyDescent="0.35">
+      <c r="A13" s="11">
+        <f>A12+1</f>
+        <v>12</v>
+      </c>
+      <c r="B13" s="9" t="s">
+        <v>53</v>
+      </c>
+      <c r="C13" s="5" t="s">
+        <v>18</v>
+      </c>
+      <c r="D13" s="8" t="s">
+        <v>34</v>
+      </c>
+      <c r="E13" s="17" t="s">
+        <v>78</v>
+      </c>
+      <c r="F13" s="21" t="s">
+        <v>70</v>
+      </c>
+      <c r="G13" s="17" t="s">
+        <v>78</v>
+      </c>
+      <c r="H13" s="8"/>
+      <c r="I13" s="8"/>
+      <c r="J13" s="13"/>
+      <c r="K13" s="15"/>
+    </row>
+    <row r="14" spans="1:11" x14ac:dyDescent="0.35">
+      <c r="A14" s="11">
+        <f>A13+1</f>
+        <v>13</v>
+      </c>
+      <c r="B14" s="9" t="s">
+        <v>56</v>
+      </c>
+      <c r="C14" s="5" t="s">
+        <v>21</v>
+      </c>
+      <c r="D14" s="8" t="s">
+        <v>37</v>
+      </c>
+      <c r="E14" s="17" t="s">
+        <v>78</v>
+      </c>
+      <c r="F14" s="21" t="s">
+        <v>71</v>
+      </c>
+      <c r="G14" s="17" t="s">
+        <v>78</v>
+      </c>
+      <c r="H14" s="8"/>
+      <c r="I14" s="8"/>
+      <c r="J14" s="13"/>
+      <c r="K14" s="15"/>
+    </row>
+    <row r="15" spans="1:11" x14ac:dyDescent="0.35">
+      <c r="A15" s="11">
+        <f>A14+1</f>
+        <v>14</v>
+      </c>
+      <c r="B15" s="9" t="s">
+        <v>47</v>
+      </c>
+      <c r="C15" s="5" t="s">
+        <v>12</v>
+      </c>
+      <c r="D15" s="8" t="s">
+        <v>28</v>
+      </c>
+      <c r="E15" s="17" t="s">
+        <v>78</v>
+      </c>
+      <c r="F15" s="22" t="s">
+        <v>72</v>
+      </c>
+      <c r="G15" s="17" t="s">
+        <v>78</v>
+      </c>
+      <c r="H15" s="8"/>
+      <c r="I15" s="8"/>
+      <c r="J15" s="13"/>
+      <c r="K15" s="15"/>
+    </row>
+    <row r="16" spans="1:11" x14ac:dyDescent="0.35">
+      <c r="A16" s="11">
+        <f>A15+1</f>
+        <v>15</v>
+      </c>
+      <c r="B16" s="9" t="s">
+        <v>54</v>
+      </c>
+      <c r="C16" s="9" t="s">
+        <v>19</v>
+      </c>
+      <c r="D16" s="10" t="s">
+        <v>35</v>
+      </c>
+      <c r="E16" s="18" t="s">
+        <v>78</v>
+      </c>
+      <c r="F16" s="22" t="s">
+        <v>73</v>
+      </c>
+      <c r="G16" s="18" t="s">
+        <v>78</v>
+      </c>
+      <c r="H16" s="10"/>
+      <c r="I16" s="10"/>
+      <c r="J16" s="13"/>
+      <c r="K16" s="15"/>
+    </row>
+    <row r="17" spans="1:11" x14ac:dyDescent="0.35">
+      <c r="A17" s="11">
+        <f>A16+1</f>
+        <v>16</v>
+      </c>
+      <c r="B17" s="9" t="s">
+        <v>55</v>
+      </c>
+      <c r="C17" s="5" t="s">
+        <v>20</v>
+      </c>
+      <c r="D17" s="8" t="s">
+        <v>36</v>
+      </c>
+      <c r="E17" s="17" t="s">
+        <v>78</v>
+      </c>
+      <c r="F17" s="21" t="s">
+        <v>74</v>
+      </c>
+      <c r="G17" s="17" t="s">
+        <v>78</v>
+      </c>
+      <c r="H17" s="8"/>
+      <c r="I17" s="8"/>
+      <c r="J17" s="13"/>
+      <c r="K17" s="15"/>
+    </row>
+    <row r="18" spans="1:11" x14ac:dyDescent="0.35">
+      <c r="A18" s="11">
+        <f>A17+1</f>
+        <v>17</v>
+      </c>
+      <c r="B18" s="9" t="s">
+        <v>57</v>
+      </c>
+      <c r="C18" s="5"/>
+      <c r="D18" s="8" t="s">
+        <v>61</v>
+      </c>
+      <c r="E18" s="17" t="s">
+        <v>78</v>
+      </c>
+      <c r="F18" s="21" t="s">
+        <v>75</v>
+      </c>
+      <c r="G18" s="17" t="s">
+        <v>78</v>
+      </c>
+      <c r="H18" s="8"/>
+      <c r="I18" s="8"/>
+      <c r="J18" s="13"/>
+      <c r="K18" s="15"/>
+    </row>
+    <row r="19" spans="1:11" x14ac:dyDescent="0.35">
+      <c r="A19" s="11">
+        <f>A18+1</f>
+        <v>18</v>
+      </c>
+      <c r="B19" s="9" t="s">
+        <v>58</v>
+      </c>
+      <c r="C19" s="5"/>
+      <c r="D19" s="6" t="s">
+        <v>40</v>
+      </c>
+      <c r="E19" s="16" t="s">
+        <v>78</v>
+      </c>
+      <c r="F19" s="7" t="s">
+        <v>76</v>
+      </c>
+      <c r="G19" s="16" t="s">
+        <v>78</v>
+      </c>
+      <c r="H19" s="6"/>
+      <c r="I19" s="6"/>
+      <c r="J19" s="13"/>
+      <c r="K19" s="15"/>
+    </row>
+    <row r="20" spans="1:11" x14ac:dyDescent="0.35">
+      <c r="A20" s="11">
+        <f>A19+1</f>
+        <v>19</v>
+      </c>
+      <c r="B20" s="9" t="s">
+        <v>59</v>
+      </c>
+      <c r="C20" s="5" t="s">
         <v>3</v>
       </c>
-      <c r="B4" s="6" t="s">
-        <v>5</v>
-      </c>
-      <c r="C4">
-        <v>2</v>
-      </c>
-      <c r="D4">
-        <v>4</v>
-      </c>
-      <c r="F4" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="5" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A5">
-        <f t="shared" si="0"/>
-        <v>4</v>
-      </c>
-      <c r="B5" s="5" t="s">
-        <v>6</v>
-      </c>
-      <c r="C5">
-        <v>1</v>
-      </c>
-      <c r="D5">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="6" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A6">
-        <f t="shared" si="0"/>
-        <v>5</v>
-      </c>
-      <c r="B6" s="5" t="s">
-        <v>9</v>
-      </c>
-      <c r="C6">
-        <v>1</v>
-      </c>
-      <c r="D6">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="7" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A7" s="2">
-        <f t="shared" si="0"/>
-        <v>6</v>
-      </c>
-      <c r="B7" s="6" t="s">
-        <v>7</v>
-      </c>
-      <c r="C7" s="2">
-        <v>1</v>
-      </c>
-      <c r="D7" s="2">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="8" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A8">
-        <f t="shared" si="0"/>
-        <v>7</v>
-      </c>
-      <c r="B8" s="5" t="s">
-        <v>8</v>
-      </c>
-      <c r="C8">
-        <v>1</v>
-      </c>
-      <c r="D8">
-        <v>1</v>
-      </c>
+      <c r="D20" s="6" t="s">
+        <v>39</v>
+      </c>
+      <c r="E20" s="16" t="s">
+        <v>78</v>
+      </c>
+      <c r="F20" s="7" t="s">
+        <v>77</v>
+      </c>
+      <c r="G20" s="16" t="s">
+        <v>78</v>
+      </c>
+      <c r="H20" s="6"/>
+      <c r="I20" s="6"/>
+      <c r="J20" s="13" t="s">
+        <v>38</v>
+      </c>
+      <c r="K20" s="15"/>
+    </row>
+    <row r="21" spans="1:11" ht="58" x14ac:dyDescent="0.35">
+      <c r="A21" s="11">
+        <f>A20+1</f>
+        <v>20</v>
+      </c>
+      <c r="B21" s="9" t="s">
+        <v>60</v>
+      </c>
+      <c r="C21" s="25" t="s">
+        <v>3</v>
+      </c>
+      <c r="D21" s="26" t="s">
+        <v>62</v>
+      </c>
+      <c r="E21" s="16" t="s">
+        <v>78</v>
+      </c>
+      <c r="F21" s="23" t="s">
+        <v>89</v>
+      </c>
+      <c r="G21" s="16" t="s">
+        <v>78</v>
+      </c>
+      <c r="H21" s="6"/>
+      <c r="I21" s="6"/>
+      <c r="J21" s="13" t="s">
+        <v>90</v>
+      </c>
+      <c r="K21" s="15"/>
+    </row>
+    <row r="22" spans="1:11" x14ac:dyDescent="0.35">
+      <c r="A22" s="3"/>
+      <c r="B22" s="2"/>
     </row>
   </sheetData>
+  <sortState ref="A2:J21">
+    <sortCondition ref="D2:D21"/>
+    <sortCondition ref="C2:C21"/>
+  </sortState>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" horizontalDpi="0" verticalDpi="0" r:id="rId1"/>
 </worksheet>

--- a/CSS2018/data/admin/ClassInfo-Dev.xlsx
+++ b/CSS2018/data/admin/ClassInfo-Dev.xlsx
@@ -13,6 +13,7 @@
   </bookViews>
   <sheets>
     <sheet name="Servers" sheetId="2" r:id="rId1"/>
+    <sheet name="Sheet1" sheetId="3" r:id="rId2"/>
   </sheets>
   <calcPr calcId="171027"/>
   <extLst>
@@ -24,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="131" uniqueCount="91">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="134" uniqueCount="93">
   <si>
     <t>Server</t>
   </si>
@@ -301,6 +302,12 @@
   </si>
   <si>
     <t>STUDY99 mystery server. Z used for sorting. NOT USED in live session other than for mystery pool.</t>
+  </si>
+  <si>
+    <t>Unused</t>
+  </si>
+  <si>
+    <t>POOL Created in Drug1Pool. .</t>
   </si>
 </sst>
 </file>
@@ -329,7 +336,7 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="5">
+  <fills count="6">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -344,13 +351,19 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.39997558519241921"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor rgb="FFFFFF00"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="0" tint="-0.249977111117893"/>
+        <fgColor theme="0" tint="-0.14999847407452621"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -404,7 +417,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="27">
+  <cellXfs count="35">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment wrapText="1"/>
@@ -448,22 +461,38 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="2" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="2" xfId="0" applyFill="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -781,7 +810,7 @@
   <dimension ref="A1:M22"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B21" sqref="B21"/>
+      <selection activeCell="J1" sqref="J1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -790,7 +819,7 @@
     <col min="3" max="3" width="13.26953125" customWidth="1"/>
     <col min="4" max="4" width="13.26953125" style="4" customWidth="1"/>
     <col min="5" max="5" width="6.6328125" style="19" customWidth="1"/>
-    <col min="6" max="6" width="13.26953125" style="24" customWidth="1"/>
+    <col min="6" max="6" width="13.26953125" style="25" customWidth="1"/>
     <col min="7" max="7" width="8.54296875" style="19" customWidth="1"/>
     <col min="8" max="9" width="13.26953125" style="4" customWidth="1"/>
     <col min="10" max="10" width="46" bestFit="1" customWidth="1"/>
@@ -847,7 +876,7 @@
       <c r="E2" s="17" t="s">
         <v>78</v>
       </c>
-      <c r="F2" s="21" t="s">
+      <c r="F2" s="23" t="s">
         <v>79</v>
       </c>
       <c r="G2" s="17" t="s">
@@ -877,7 +906,7 @@
       <c r="E3" s="17" t="s">
         <v>78</v>
       </c>
-      <c r="F3" s="21" t="s">
+      <c r="F3" s="23" t="s">
         <v>80</v>
       </c>
       <c r="G3" s="17" t="s">
@@ -905,7 +934,7 @@
       <c r="E4" s="18" t="s">
         <v>78</v>
       </c>
-      <c r="F4" s="22" t="s">
+      <c r="F4" s="24" t="s">
         <v>81</v>
       </c>
       <c r="G4" s="18" t="s">
@@ -933,7 +962,7 @@
       <c r="E5" s="18" t="s">
         <v>78</v>
       </c>
-      <c r="F5" s="22" t="s">
+      <c r="F5" s="24" t="s">
         <v>83</v>
       </c>
       <c r="G5" s="18" t="s">
@@ -961,7 +990,7 @@
       <c r="E6" s="17" t="s">
         <v>78</v>
       </c>
-      <c r="F6" s="22" t="s">
+      <c r="F6" s="24" t="s">
         <v>84</v>
       </c>
       <c r="G6" s="17" t="s">
@@ -989,7 +1018,7 @@
       <c r="E7" s="17" t="s">
         <v>78</v>
       </c>
-      <c r="F7" s="22" t="s">
+      <c r="F7" s="24" t="s">
         <v>85</v>
       </c>
       <c r="G7" s="17" t="s">
@@ -1017,7 +1046,7 @@
       <c r="E8" s="17" t="s">
         <v>78</v>
       </c>
-      <c r="F8" s="22" t="s">
+      <c r="F8" s="24" t="s">
         <v>86</v>
       </c>
       <c r="G8" s="17" t="s">
@@ -1045,7 +1074,7 @@
       <c r="E9" s="17" t="s">
         <v>78</v>
       </c>
-      <c r="F9" s="22" t="s">
+      <c r="F9" s="24" t="s">
         <v>87</v>
       </c>
       <c r="G9" s="17" t="s">
@@ -1073,7 +1102,7 @@
       <c r="E10" s="16" t="s">
         <v>78</v>
       </c>
-      <c r="F10" s="22" t="s">
+      <c r="F10" s="24" t="s">
         <v>88</v>
       </c>
       <c r="G10" s="16" t="s">
@@ -1100,7 +1129,7 @@
       <c r="E11" s="17" t="s">
         <v>78</v>
       </c>
-      <c r="F11" s="22" t="s">
+      <c r="F11" s="24" t="s">
         <v>66</v>
       </c>
       <c r="G11" s="17" t="s">
@@ -1128,7 +1157,7 @@
       <c r="E12" s="17" t="s">
         <v>78</v>
       </c>
-      <c r="F12" s="22" t="s">
+      <c r="F12" s="24" t="s">
         <v>68</v>
       </c>
       <c r="G12" s="17" t="s">
@@ -1156,7 +1185,7 @@
       <c r="E13" s="17" t="s">
         <v>78</v>
       </c>
-      <c r="F13" s="21" t="s">
+      <c r="F13" s="23" t="s">
         <v>70</v>
       </c>
       <c r="G13" s="17" t="s">
@@ -1184,7 +1213,7 @@
       <c r="E14" s="17" t="s">
         <v>78</v>
       </c>
-      <c r="F14" s="21" t="s">
+      <c r="F14" s="23" t="s">
         <v>71</v>
       </c>
       <c r="G14" s="17" t="s">
@@ -1212,7 +1241,7 @@
       <c r="E15" s="17" t="s">
         <v>78</v>
       </c>
-      <c r="F15" s="22" t="s">
+      <c r="F15" s="24" t="s">
         <v>72</v>
       </c>
       <c r="G15" s="17" t="s">
@@ -1240,7 +1269,7 @@
       <c r="E16" s="18" t="s">
         <v>78</v>
       </c>
-      <c r="F16" s="22" t="s">
+      <c r="F16" s="24" t="s">
         <v>73</v>
       </c>
       <c r="G16" s="18" t="s">
@@ -1268,7 +1297,7 @@
       <c r="E17" s="17" t="s">
         <v>78</v>
       </c>
-      <c r="F17" s="21" t="s">
+      <c r="F17" s="23" t="s">
         <v>74</v>
       </c>
       <c r="G17" s="17" t="s">
@@ -1280,66 +1309,70 @@
       <c r="K17" s="15"/>
     </row>
     <row r="18" spans="1:11" x14ac:dyDescent="0.35">
-      <c r="A18" s="11">
+      <c r="A18" s="26">
         <f>A17+1</f>
         <v>17</v>
       </c>
-      <c r="B18" s="9" t="s">
+      <c r="B18" s="26" t="s">
         <v>57</v>
       </c>
-      <c r="C18" s="5"/>
-      <c r="D18" s="8" t="s">
+      <c r="C18" s="26"/>
+      <c r="D18" s="27" t="s">
         <v>61</v>
       </c>
-      <c r="E18" s="17" t="s">
-        <v>78</v>
-      </c>
-      <c r="F18" s="21" t="s">
+      <c r="E18" s="32" t="s">
+        <v>78</v>
+      </c>
+      <c r="F18" s="33" t="s">
         <v>75</v>
       </c>
-      <c r="G18" s="17" t="s">
-        <v>78</v>
-      </c>
-      <c r="H18" s="8"/>
-      <c r="I18" s="8"/>
-      <c r="J18" s="13"/>
+      <c r="G18" s="32" t="s">
+        <v>78</v>
+      </c>
+      <c r="H18" s="27"/>
+      <c r="I18" s="27"/>
+      <c r="J18" s="34" t="s">
+        <v>91</v>
+      </c>
       <c r="K18" s="15"/>
     </row>
     <row r="19" spans="1:11" x14ac:dyDescent="0.35">
-      <c r="A19" s="11">
+      <c r="A19" s="26">
         <f>A18+1</f>
         <v>18</v>
       </c>
-      <c r="B19" s="9" t="s">
+      <c r="B19" s="26" t="s">
         <v>58</v>
       </c>
-      <c r="C19" s="5"/>
-      <c r="D19" s="6" t="s">
+      <c r="C19" s="26"/>
+      <c r="D19" s="27" t="s">
         <v>40</v>
       </c>
-      <c r="E19" s="16" t="s">
-        <v>78</v>
-      </c>
-      <c r="F19" s="7" t="s">
+      <c r="E19" s="32" t="s">
+        <v>78</v>
+      </c>
+      <c r="F19" s="33" t="s">
         <v>76</v>
       </c>
-      <c r="G19" s="16" t="s">
-        <v>78</v>
-      </c>
-      <c r="H19" s="6"/>
-      <c r="I19" s="6"/>
-      <c r="J19" s="13"/>
+      <c r="G19" s="32" t="s">
+        <v>78</v>
+      </c>
+      <c r="H19" s="27"/>
+      <c r="I19" s="27"/>
+      <c r="J19" s="34" t="s">
+        <v>91</v>
+      </c>
       <c r="K19" s="15"/>
     </row>
     <row r="20" spans="1:11" x14ac:dyDescent="0.35">
-      <c r="A20" s="11">
+      <c r="A20" s="22">
         <f>A19+1</f>
         <v>19</v>
       </c>
-      <c r="B20" s="9" t="s">
+      <c r="B20" s="22" t="s">
         <v>59</v>
       </c>
-      <c r="C20" s="5" t="s">
+      <c r="C20" s="22" t="s">
         <v>3</v>
       </c>
       <c r="D20" s="6" t="s">
@@ -1359,34 +1392,36 @@
       <c r="J20" s="13" t="s">
         <v>38</v>
       </c>
-      <c r="K20" s="15"/>
+      <c r="K20" s="15" t="s">
+        <v>92</v>
+      </c>
     </row>
     <row r="21" spans="1:11" ht="58" x14ac:dyDescent="0.35">
-      <c r="A21" s="11">
+      <c r="A21" s="28">
         <f>A20+1</f>
         <v>20</v>
       </c>
-      <c r="B21" s="9" t="s">
+      <c r="B21" s="28" t="s">
         <v>60</v>
       </c>
-      <c r="C21" s="25" t="s">
+      <c r="C21" s="28" t="s">
         <v>3</v>
       </c>
-      <c r="D21" s="26" t="s">
+      <c r="D21" s="21" t="s">
         <v>62</v>
       </c>
-      <c r="E21" s="16" t="s">
-        <v>78</v>
-      </c>
-      <c r="F21" s="23" t="s">
+      <c r="E21" s="29" t="s">
+        <v>78</v>
+      </c>
+      <c r="F21" s="30" t="s">
         <v>89</v>
       </c>
-      <c r="G21" s="16" t="s">
-        <v>78</v>
-      </c>
-      <c r="H21" s="6"/>
-      <c r="I21" s="6"/>
-      <c r="J21" s="13" t="s">
+      <c r="G21" s="29" t="s">
+        <v>78</v>
+      </c>
+      <c r="H21" s="21"/>
+      <c r="I21" s="21"/>
+      <c r="J21" s="31" t="s">
         <v>90</v>
       </c>
       <c r="K21" s="15"/>
@@ -1403,4 +1438,18 @@
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" horizontalDpi="0" verticalDpi="0" r:id="rId1"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A5" sqref="A5"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetData/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
 </file>
--- a/CSS2018/data/admin/ClassInfo-Dev.xlsx
+++ b/CSS2018/data/admin/ClassInfo-Dev.xlsx
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="134" uniqueCount="93">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="102" uniqueCount="61">
   <si>
     <t>Server</t>
   </si>
@@ -43,102 +43,6 @@
   </si>
   <si>
     <t>surName</t>
-  </si>
-  <si>
-    <t>Nancy</t>
-  </si>
-  <si>
-    <t>Thomas Gade</t>
-  </si>
-  <si>
-    <t>Albert</t>
-  </si>
-  <si>
-    <t>William</t>
-  </si>
-  <si>
-    <t>Praveen</t>
-  </si>
-  <si>
-    <t>Brian</t>
-  </si>
-  <si>
-    <t>Drashtti</t>
-  </si>
-  <si>
-    <t>Ippei</t>
-  </si>
-  <si>
-    <t>Michael</t>
-  </si>
-  <si>
-    <t>Grace</t>
-  </si>
-  <si>
-    <t>Ting-Yuan</t>
-  </si>
-  <si>
-    <t>Julie</t>
-  </si>
-  <si>
-    <t>Cynthia</t>
-  </si>
-  <si>
-    <t>Terry</t>
-  </si>
-  <si>
-    <t>Zhihai</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Sumeet </t>
-  </si>
-  <si>
-    <t>Bauer</t>
-  </si>
-  <si>
-    <t>Bjerregaard</t>
-  </si>
-  <si>
-    <t>Chau</t>
-  </si>
-  <si>
-    <t>Drewe</t>
-  </si>
-  <si>
-    <t>Garg</t>
-  </si>
-  <si>
-    <t>Harris</t>
-  </si>
-  <si>
-    <t>Vasant</t>
-  </si>
-  <si>
-    <t>Akiya</t>
-  </si>
-  <si>
-    <t>Carniello</t>
-  </si>
-  <si>
-    <t>Lin</t>
-  </si>
-  <si>
-    <t>Liu</t>
-  </si>
-  <si>
-    <t>Shah</t>
-  </si>
-  <si>
-    <t>Stroupe</t>
-  </si>
-  <si>
-    <t>Walsh</t>
-  </si>
-  <si>
-    <t>Zhang</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Uppal </t>
   </si>
   <si>
     <t>Study19 created during the session. Z used for sorting</t>
@@ -810,7 +714,7 @@
   <dimension ref="A1:M22"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="J1" sqref="J1"/>
+      <selection activeCell="C1" sqref="C1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -841,19 +745,19 @@
         <v>5</v>
       </c>
       <c r="E1" s="16" t="s">
-        <v>69</v>
+        <v>37</v>
       </c>
       <c r="F1" s="7" t="s">
-        <v>65</v>
+        <v>33</v>
       </c>
       <c r="G1" s="20" t="s">
-        <v>82</v>
+        <v>50</v>
       </c>
       <c r="H1" s="6" t="s">
-        <v>63</v>
+        <v>31</v>
       </c>
       <c r="I1" s="6" t="s">
-        <v>64</v>
+        <v>32</v>
       </c>
       <c r="J1" s="13" t="s">
         <v>2</v>
@@ -865,52 +769,44 @@
         <v>1</v>
       </c>
       <c r="B2" s="9" t="s">
-        <v>48</v>
-      </c>
-      <c r="C2" s="5" t="s">
-        <v>13</v>
-      </c>
-      <c r="D2" s="8" t="s">
-        <v>29</v>
-      </c>
+        <v>16</v>
+      </c>
+      <c r="C2" s="5"/>
+      <c r="D2" s="8"/>
       <c r="E2" s="17" t="s">
-        <v>78</v>
+        <v>46</v>
       </c>
       <c r="F2" s="23" t="s">
-        <v>79</v>
+        <v>47</v>
       </c>
       <c r="G2" s="17" t="s">
-        <v>78</v>
+        <v>46</v>
       </c>
       <c r="H2" s="8"/>
       <c r="I2" s="8"/>
       <c r="J2" s="13" t="s">
-        <v>67</v>
+        <v>35</v>
       </c>
       <c r="K2" s="15"/>
     </row>
     <row r="3" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A3" s="9">
-        <f>A2+1</f>
+        <f t="shared" ref="A3:A21" si="0">A2+1</f>
         <v>2</v>
       </c>
       <c r="B3" s="9" t="s">
-        <v>41</v>
-      </c>
-      <c r="C3" s="5" t="s">
-        <v>6</v>
-      </c>
-      <c r="D3" s="8" t="s">
-        <v>22</v>
-      </c>
+        <v>9</v>
+      </c>
+      <c r="C3" s="5"/>
+      <c r="D3" s="8"/>
       <c r="E3" s="17" t="s">
-        <v>78</v>
+        <v>46</v>
       </c>
       <c r="F3" s="23" t="s">
-        <v>80</v>
+        <v>48</v>
       </c>
       <c r="G3" s="17" t="s">
-        <v>78</v>
+        <v>46</v>
       </c>
       <c r="H3" s="8"/>
       <c r="I3" s="8"/>
@@ -919,26 +815,22 @@
     </row>
     <row r="4" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A4" s="9">
-        <f>A3+1</f>
+        <f t="shared" si="0"/>
         <v>3</v>
       </c>
       <c r="B4" s="9" t="s">
-        <v>42</v>
-      </c>
-      <c r="C4" s="9" t="s">
-        <v>7</v>
-      </c>
-      <c r="D4" s="10" t="s">
-        <v>23</v>
-      </c>
+        <v>10</v>
+      </c>
+      <c r="C4" s="9"/>
+      <c r="D4" s="10"/>
       <c r="E4" s="18" t="s">
-        <v>78</v>
+        <v>46</v>
       </c>
       <c r="F4" s="24" t="s">
-        <v>81</v>
+        <v>49</v>
       </c>
       <c r="G4" s="18" t="s">
-        <v>78</v>
+        <v>46</v>
       </c>
       <c r="H4" s="10"/>
       <c r="I4" s="10"/>
@@ -947,26 +839,22 @@
     </row>
     <row r="5" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A5" s="11">
-        <f>A4+1</f>
+        <f t="shared" si="0"/>
         <v>4</v>
       </c>
       <c r="B5" s="9" t="s">
-        <v>49</v>
-      </c>
-      <c r="C5" s="9" t="s">
-        <v>14</v>
-      </c>
-      <c r="D5" s="10" t="s">
-        <v>30</v>
-      </c>
+        <v>17</v>
+      </c>
+      <c r="C5" s="9"/>
+      <c r="D5" s="10"/>
       <c r="E5" s="18" t="s">
-        <v>78</v>
+        <v>46</v>
       </c>
       <c r="F5" s="24" t="s">
-        <v>83</v>
+        <v>51</v>
       </c>
       <c r="G5" s="18" t="s">
-        <v>78</v>
+        <v>46</v>
       </c>
       <c r="H5" s="10"/>
       <c r="I5" s="10"/>
@@ -975,26 +863,22 @@
     </row>
     <row r="6" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A6" s="11">
-        <f>A5+1</f>
+        <f t="shared" si="0"/>
         <v>5</v>
       </c>
       <c r="B6" s="9" t="s">
-        <v>43</v>
-      </c>
-      <c r="C6" s="5" t="s">
-        <v>8</v>
-      </c>
-      <c r="D6" s="8" t="s">
-        <v>24</v>
-      </c>
+        <v>11</v>
+      </c>
+      <c r="C6" s="5"/>
+      <c r="D6" s="8"/>
       <c r="E6" s="17" t="s">
-        <v>78</v>
+        <v>46</v>
       </c>
       <c r="F6" s="24" t="s">
-        <v>84</v>
+        <v>52</v>
       </c>
       <c r="G6" s="17" t="s">
-        <v>78</v>
+        <v>46</v>
       </c>
       <c r="H6" s="8"/>
       <c r="I6" s="8"/>
@@ -1003,26 +887,22 @@
     </row>
     <row r="7" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A7" s="11">
-        <f>A6+1</f>
+        <f t="shared" si="0"/>
         <v>6</v>
       </c>
       <c r="B7" s="9" t="s">
-        <v>44</v>
-      </c>
-      <c r="C7" s="9" t="s">
-        <v>9</v>
-      </c>
-      <c r="D7" s="8" t="s">
-        <v>25</v>
-      </c>
+        <v>12</v>
+      </c>
+      <c r="C7" s="9"/>
+      <c r="D7" s="8"/>
       <c r="E7" s="17" t="s">
-        <v>78</v>
+        <v>46</v>
       </c>
       <c r="F7" s="24" t="s">
-        <v>85</v>
+        <v>53</v>
       </c>
       <c r="G7" s="17" t="s">
-        <v>78</v>
+        <v>46</v>
       </c>
       <c r="H7" s="8"/>
       <c r="I7" s="8"/>
@@ -1031,26 +911,22 @@
     </row>
     <row r="8" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A8" s="11">
-        <f>A7+1</f>
+        <f t="shared" si="0"/>
         <v>7</v>
       </c>
       <c r="B8" s="9" t="s">
-        <v>45</v>
-      </c>
-      <c r="C8" s="9" t="s">
-        <v>10</v>
-      </c>
-      <c r="D8" s="8" t="s">
-        <v>26</v>
-      </c>
+        <v>13</v>
+      </c>
+      <c r="C8" s="9"/>
+      <c r="D8" s="8"/>
       <c r="E8" s="17" t="s">
-        <v>78</v>
+        <v>46</v>
       </c>
       <c r="F8" s="24" t="s">
-        <v>86</v>
+        <v>54</v>
       </c>
       <c r="G8" s="17" t="s">
-        <v>78</v>
+        <v>46</v>
       </c>
       <c r="H8" s="8"/>
       <c r="I8" s="8"/>
@@ -1059,26 +935,22 @@
     </row>
     <row r="9" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A9" s="11">
-        <f>A8+1</f>
+        <f t="shared" si="0"/>
         <v>8</v>
       </c>
       <c r="B9" s="12" t="s">
-        <v>46</v>
-      </c>
-      <c r="C9" s="5" t="s">
-        <v>11</v>
-      </c>
-      <c r="D9" s="8" t="s">
-        <v>27</v>
-      </c>
+        <v>14</v>
+      </c>
+      <c r="C9" s="5"/>
+      <c r="D9" s="8"/>
       <c r="E9" s="17" t="s">
-        <v>78</v>
+        <v>46</v>
       </c>
       <c r="F9" s="24" t="s">
-        <v>87</v>
+        <v>55</v>
       </c>
       <c r="G9" s="17" t="s">
-        <v>78</v>
+        <v>46</v>
       </c>
       <c r="H9" s="8"/>
       <c r="I9" s="8"/>
@@ -1087,26 +959,22 @@
     </row>
     <row r="10" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A10" s="11">
-        <f>A9+1</f>
+        <f t="shared" si="0"/>
         <v>9</v>
       </c>
       <c r="B10" s="9" t="s">
-        <v>50</v>
-      </c>
-      <c r="C10" s="5" t="s">
-        <v>15</v>
-      </c>
-      <c r="D10" s="6" t="s">
-        <v>31</v>
-      </c>
+        <v>18</v>
+      </c>
+      <c r="C10" s="5"/>
+      <c r="D10" s="6"/>
       <c r="E10" s="16" t="s">
-        <v>78</v>
+        <v>46</v>
       </c>
       <c r="F10" s="24" t="s">
-        <v>88</v>
+        <v>56</v>
       </c>
       <c r="G10" s="16" t="s">
-        <v>78</v>
+        <v>46</v>
       </c>
       <c r="H10" s="6"/>
       <c r="I10" s="6"/>
@@ -1114,26 +982,22 @@
     </row>
     <row r="11" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A11" s="11">
-        <f>A10+1</f>
+        <f t="shared" si="0"/>
         <v>10</v>
       </c>
       <c r="B11" s="9" t="s">
-        <v>51</v>
-      </c>
-      <c r="C11" s="5" t="s">
-        <v>16</v>
-      </c>
-      <c r="D11" s="8" t="s">
-        <v>32</v>
-      </c>
+        <v>19</v>
+      </c>
+      <c r="C11" s="5"/>
+      <c r="D11" s="8"/>
       <c r="E11" s="17" t="s">
-        <v>78</v>
+        <v>46</v>
       </c>
       <c r="F11" s="24" t="s">
-        <v>66</v>
+        <v>34</v>
       </c>
       <c r="G11" s="17" t="s">
-        <v>78</v>
+        <v>46</v>
       </c>
       <c r="H11" s="8"/>
       <c r="I11" s="8"/>
@@ -1142,26 +1006,22 @@
     </row>
     <row r="12" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A12" s="11">
-        <f>A11+1</f>
+        <f t="shared" si="0"/>
         <v>11</v>
       </c>
       <c r="B12" s="9" t="s">
-        <v>52</v>
-      </c>
-      <c r="C12" s="5" t="s">
-        <v>17</v>
-      </c>
-      <c r="D12" s="8" t="s">
-        <v>33</v>
-      </c>
+        <v>20</v>
+      </c>
+      <c r="C12" s="5"/>
+      <c r="D12" s="8"/>
       <c r="E12" s="17" t="s">
-        <v>78</v>
+        <v>46</v>
       </c>
       <c r="F12" s="24" t="s">
-        <v>68</v>
+        <v>36</v>
       </c>
       <c r="G12" s="17" t="s">
-        <v>78</v>
+        <v>46</v>
       </c>
       <c r="H12" s="8"/>
       <c r="I12" s="8"/>
@@ -1170,26 +1030,22 @@
     </row>
     <row r="13" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A13" s="11">
-        <f>A12+1</f>
+        <f t="shared" si="0"/>
         <v>12</v>
       </c>
       <c r="B13" s="9" t="s">
-        <v>53</v>
-      </c>
-      <c r="C13" s="5" t="s">
-        <v>18</v>
-      </c>
-      <c r="D13" s="8" t="s">
-        <v>34</v>
-      </c>
+        <v>21</v>
+      </c>
+      <c r="C13" s="5"/>
+      <c r="D13" s="8"/>
       <c r="E13" s="17" t="s">
-        <v>78</v>
+        <v>46</v>
       </c>
       <c r="F13" s="23" t="s">
-        <v>70</v>
+        <v>38</v>
       </c>
       <c r="G13" s="17" t="s">
-        <v>78</v>
+        <v>46</v>
       </c>
       <c r="H13" s="8"/>
       <c r="I13" s="8"/>
@@ -1198,26 +1054,22 @@
     </row>
     <row r="14" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A14" s="11">
-        <f>A13+1</f>
+        <f t="shared" si="0"/>
         <v>13</v>
       </c>
       <c r="B14" s="9" t="s">
-        <v>56</v>
-      </c>
-      <c r="C14" s="5" t="s">
-        <v>21</v>
-      </c>
-      <c r="D14" s="8" t="s">
-        <v>37</v>
-      </c>
+        <v>24</v>
+      </c>
+      <c r="C14" s="5"/>
+      <c r="D14" s="8"/>
       <c r="E14" s="17" t="s">
-        <v>78</v>
+        <v>46</v>
       </c>
       <c r="F14" s="23" t="s">
-        <v>71</v>
+        <v>39</v>
       </c>
       <c r="G14" s="17" t="s">
-        <v>78</v>
+        <v>46</v>
       </c>
       <c r="H14" s="8"/>
       <c r="I14" s="8"/>
@@ -1226,26 +1078,22 @@
     </row>
     <row r="15" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A15" s="11">
-        <f>A14+1</f>
+        <f t="shared" si="0"/>
         <v>14</v>
       </c>
       <c r="B15" s="9" t="s">
-        <v>47</v>
-      </c>
-      <c r="C15" s="5" t="s">
-        <v>12</v>
-      </c>
-      <c r="D15" s="8" t="s">
-        <v>28</v>
-      </c>
+        <v>15</v>
+      </c>
+      <c r="C15" s="5"/>
+      <c r="D15" s="8"/>
       <c r="E15" s="17" t="s">
-        <v>78</v>
+        <v>46</v>
       </c>
       <c r="F15" s="24" t="s">
-        <v>72</v>
+        <v>40</v>
       </c>
       <c r="G15" s="17" t="s">
-        <v>78</v>
+        <v>46</v>
       </c>
       <c r="H15" s="8"/>
       <c r="I15" s="8"/>
@@ -1254,26 +1102,22 @@
     </row>
     <row r="16" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A16" s="11">
-        <f>A15+1</f>
+        <f t="shared" si="0"/>
         <v>15</v>
       </c>
       <c r="B16" s="9" t="s">
-        <v>54</v>
-      </c>
-      <c r="C16" s="9" t="s">
-        <v>19</v>
-      </c>
-      <c r="D16" s="10" t="s">
-        <v>35</v>
-      </c>
+        <v>22</v>
+      </c>
+      <c r="C16" s="9"/>
+      <c r="D16" s="10"/>
       <c r="E16" s="18" t="s">
-        <v>78</v>
+        <v>46</v>
       </c>
       <c r="F16" s="24" t="s">
-        <v>73</v>
+        <v>41</v>
       </c>
       <c r="G16" s="18" t="s">
-        <v>78</v>
+        <v>46</v>
       </c>
       <c r="H16" s="10"/>
       <c r="I16" s="10"/>
@@ -1282,26 +1126,22 @@
     </row>
     <row r="17" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A17" s="11">
-        <f>A16+1</f>
+        <f t="shared" si="0"/>
         <v>16</v>
       </c>
       <c r="B17" s="9" t="s">
-        <v>55</v>
-      </c>
-      <c r="C17" s="5" t="s">
-        <v>20</v>
-      </c>
-      <c r="D17" s="8" t="s">
-        <v>36</v>
-      </c>
+        <v>23</v>
+      </c>
+      <c r="C17" s="5"/>
+      <c r="D17" s="8"/>
       <c r="E17" s="17" t="s">
-        <v>78</v>
+        <v>46</v>
       </c>
       <c r="F17" s="23" t="s">
-        <v>74</v>
+        <v>42</v>
       </c>
       <c r="G17" s="17" t="s">
-        <v>78</v>
+        <v>46</v>
       </c>
       <c r="H17" s="8"/>
       <c r="I17" s="8"/>
@@ -1310,119 +1150,119 @@
     </row>
     <row r="18" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A18" s="26">
-        <f>A17+1</f>
+        <f t="shared" si="0"/>
         <v>17</v>
       </c>
       <c r="B18" s="26" t="s">
-        <v>57</v>
+        <v>25</v>
       </c>
       <c r="C18" s="26"/>
       <c r="D18" s="27" t="s">
-        <v>61</v>
+        <v>29</v>
       </c>
       <c r="E18" s="32" t="s">
-        <v>78</v>
+        <v>46</v>
       </c>
       <c r="F18" s="33" t="s">
-        <v>75</v>
+        <v>43</v>
       </c>
       <c r="G18" s="32" t="s">
-        <v>78</v>
+        <v>46</v>
       </c>
       <c r="H18" s="27"/>
       <c r="I18" s="27"/>
       <c r="J18" s="34" t="s">
-        <v>91</v>
+        <v>59</v>
       </c>
       <c r="K18" s="15"/>
     </row>
     <row r="19" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A19" s="26">
-        <f>A18+1</f>
+        <f t="shared" si="0"/>
         <v>18</v>
       </c>
       <c r="B19" s="26" t="s">
-        <v>58</v>
+        <v>26</v>
       </c>
       <c r="C19" s="26"/>
       <c r="D19" s="27" t="s">
-        <v>40</v>
+        <v>8</v>
       </c>
       <c r="E19" s="32" t="s">
-        <v>78</v>
+        <v>46</v>
       </c>
       <c r="F19" s="33" t="s">
-        <v>76</v>
+        <v>44</v>
       </c>
       <c r="G19" s="32" t="s">
-        <v>78</v>
+        <v>46</v>
       </c>
       <c r="H19" s="27"/>
       <c r="I19" s="27"/>
       <c r="J19" s="34" t="s">
-        <v>91</v>
+        <v>59</v>
       </c>
       <c r="K19" s="15"/>
     </row>
     <row r="20" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A20" s="22">
-        <f>A19+1</f>
+        <f t="shared" si="0"/>
         <v>19</v>
       </c>
       <c r="B20" s="22" t="s">
-        <v>59</v>
+        <v>27</v>
       </c>
       <c r="C20" s="22" t="s">
         <v>3</v>
       </c>
       <c r="D20" s="6" t="s">
-        <v>39</v>
+        <v>7</v>
       </c>
       <c r="E20" s="16" t="s">
-        <v>78</v>
+        <v>46</v>
       </c>
       <c r="F20" s="7" t="s">
-        <v>77</v>
+        <v>45</v>
       </c>
       <c r="G20" s="16" t="s">
-        <v>78</v>
+        <v>46</v>
       </c>
       <c r="H20" s="6"/>
       <c r="I20" s="6"/>
       <c r="J20" s="13" t="s">
-        <v>38</v>
+        <v>6</v>
       </c>
       <c r="K20" s="15" t="s">
-        <v>92</v>
+        <v>60</v>
       </c>
     </row>
     <row r="21" spans="1:11" ht="58" x14ac:dyDescent="0.35">
       <c r="A21" s="28">
-        <f>A20+1</f>
+        <f t="shared" si="0"/>
         <v>20</v>
       </c>
       <c r="B21" s="28" t="s">
-        <v>60</v>
+        <v>28</v>
       </c>
       <c r="C21" s="28" t="s">
         <v>3</v>
       </c>
       <c r="D21" s="21" t="s">
-        <v>62</v>
+        <v>30</v>
       </c>
       <c r="E21" s="29" t="s">
-        <v>78</v>
+        <v>46</v>
       </c>
       <c r="F21" s="30" t="s">
-        <v>89</v>
+        <v>57</v>
       </c>
       <c r="G21" s="29" t="s">
-        <v>78</v>
+        <v>46</v>
       </c>
       <c r="H21" s="21"/>
       <c r="I21" s="21"/>
       <c r="J21" s="31" t="s">
-        <v>90</v>
+        <v>58</v>
       </c>
       <c r="K21" s="15"/>
     </row>
